--- a/P0105/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0105/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0105/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFBBDC1C-FA37-4EFD-AD8D-5B72741C2AA8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,6 +90,268 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0105</t>
+  </si>
+  <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>Estudio HIdrologico Caño Pescado</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/18_PSMV_OCUPACION_DE_CAUCE\Estudio HIdrologico Caño Pescado.pdf</t>
+  </si>
+  <si>
+    <t>Sara Catalina Grisales Vargas</t>
+  </si>
+  <si>
+    <t>Universidad de Antioquia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El documento titulado "Análisis de Caudales Máximos para la Microcuenca Asociada al Cruce en Estudio Sobre el Caño Pescado" es un informe técnico elaborado en abril de 2016 por Sara Catalina Grisales Vargas, Ingeniera Ambiental, en colaboración con la Universidad de Antioquia y la Gobernación de Antioquia. Su objetivo principal es realizar un análisis detallado de los caudales máximos de crecimiento en la microcuenca del Caño Pescado, ubicada en el municipio de Nechí, Antioquia, como parte de la segunda etapa del proyecto de construcción del sistema de manejo de aguas residuales urbanas en dicho municipio.
+El informe comienza con una introducción que contextualiza la importancia de llevar a cabo estudios hidrológicos en la fase de diseño de infraestructuras para el manejo de aguas residuales. Se subraya la necesidad de obtener permisos de ocupación de cauce en cuerpos de agua donde se proyecten cruces de redes de acueducto o alcantarillado. Este aspecto es crucial para garantizar el cumplimiento de normas ambientales y la seguridad de las infraestructuras propuestas.
+El documento detalla la delimitación de la microcuenca asociada al cruce 1 sobre el Caño Pescado, así como la ubicación específica de este cruce mediante coordenadas geográficas. Se presentan los parámetros morfométricos de la microcuenca, tales como el área, el perímetro, y la longitud del cauce principal, que son fundamentales para la evaluación hidrológica.
+Se utilizan diferentes metodologías para el cálculo de caudales máximos asociados a periodos de retorno de 2.33, 5, 10, 25, 50 y 100 años. Entre estas metodologías se destacan el Método Racional, el Hidrograma Unitario Sintético de Williams y Hann, el método de la Soil Conservation Service (SCS), y el Hidrograma Unitario Sintético de Snyder. El informe también menciona la utilización del software ArcGIS 10.2 para la implementación de herramientas de sistemas de información geográfica (SIG), facilitando la identificación y análisis de las características morfométricas de la microcuenca.
+Los resultados de los caudales máximos se resumen en tablas, presentando los caudales obtenidos mediante cada método. Finalmente, se concluye que, aunque el método racional fue elegido para el diseño del caudal debido a su adecuación para microcuencas con áreas menores a 1 km², los resultados de otros métodos también fueron relevantes en el análisis de la dinámica del caño.
+Este estudio es esencial para la planificación de infraestructuras hídricas seguras y eficaces en la región de Nechí, contribuyendo a mejorar las condiciones de manejo de aguas residuales y minimizar el riesgo de inundaciones. Al aportar datos precisos sobre los caudales máximos esperados, el informe permite tomar decisiones informadas sobre el diseño y viabilidad de las obras de infraestructura propuestas, garantizando el desarrollo sostenible en el municipio de Nechí, Antioquia.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El documento "Análisis de Caudales Máximos para la Microcuenca Asociada al Cruce en Estudio Sobre el Caño Pescado" ofrece un análisis detallado de los caudales máximos en la microcuenca del Caño Pescado, ubicada en el municipio de Nechí, Antioquia. Los resultados clave indican que se calcularon los caudales máximos para periodos de retorno de 2.33, 5, 10, 25, 50 y 100 años utilizando metodologías reconocidas, incluyendo el Método Racional, el Hidrograma Unitario Sintético de Williams y Hann, el método del Soil Conservation Service (SCS), y el Hidrograma Unitario Sintético de Snyder. Los valores de caudales máximos en litros por segundo (m³/s) alcanzaron hasta 45.752 m³/s con el método de Williams &amp; Hann, mientras que el método SCS presentó valores similares de hasta 46.500 m³/s. Sin embargo, el Método Racional, que establece un caudal máximo de 4.640 m³/s para el periodo de 100 años, fue seleccionado debido a su idoneidad para microcuencas con área inferior a 1 km².
+Se destacó que, a pesar de los altos valores obtenidos con las metodologías de Williams &amp; Hann y SCS, no se recomendó su uso en el diseño, ya que estas metodologías tienden a sobreestimar los caudales en microcuencas pequeñas. Por el contrario, se propuso utilizar los caudales derivados del Método Racional, el cual se considera más adecuado para la microcuenca en estudio que tiene un área de 0.09 km². Además, los caudales calculados servirán como base para llevar a cabo modelaciones hidráulicas que evaluarán la viabilidad de las estructuras propuestas para el cruce en el Caño Pescado.
+En conclusión, el análisis reveló la importancia de seleccionar adecuadamente el método de cálculo de caudales para garantizar la eficacia y seguridad de las obras de infraestructura hidráulica. El Método Racional se presenta como la opción más viable para microcuencas pequeñas en la región, lo que alinea el diseño con las condiciones climáticas y morfométricas observadas. Por lo tanto, se sugiere la realización de estudios hidrológicos a largo plazo para ajustar los modelos según la variabilidad climática y el crecimiento urbano en la zona.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Variable: Caudal</t>
+  </si>
+  <si>
+    <t>Caño Pescado, caudales máximos, microcuenca, hidrología, Nechí, Antioquia, métodos hidrológicos, Método Racional, hidrograma unitario sintético, SCS, diseño de infraestructura, aguas residuales, modelación hidráulica, periodo de retorno, análisis morfométrico, seguridad hídrica</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>Modelacion HIdraulica Caño Pescado</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/18_PSMV_OCUPACION_DE_CAUCE\Modelacion HIdraulica Caño Pescado.pdf</t>
+  </si>
+  <si>
+    <t>El documento "Modelación Hidráulica del Tramo en Estudio del Caño Pescado, Localizado en el Municipio de Nechí - Antioquia" es un informe técnico que describe un estudio sobre la gestión de las aguas residuales urbanas en el municipio de Nechí, Antioquia, Colombia. La investigación se enmarca dentro del Plan Departamental de Aguas (PDA), que busca optimizar la infraestructura hídrica en la región.
+El principal objetivo del informe es presentar los resultados de la evaluación del comportamiento hidráulico del Caño Pescado, específicamente en el cruce de alcantarillado proyectado. Se busca garantizar que las obras planificadas no afecten la dinámica natural del cuerpo de agua y cumplir con la viabilidad técnica del proyecto de saneamiento urbano.
+El documento incluye varias secciones clave. En primer lugar, la Introducción describe el contexto del estudio, incluyendo el convenio entre la Gobernación de Antioquia y la Universidad de Antioquia para el desarrollo del PDA. También se resalta la importancia de realizar estudios hidrológicos e hidráulicos antes de implementar infraestructuras en el cauce. A continuación, las Generalidades detallan la planificación de un cruce subfluvial sobre el Caño Pescado en el barrio Las Palmas del municipio de Nechí y la necesidad del estudio hidráulico correspondiente, que busca analizar la dinámica del cauce.
+La Metodología desarrollada para la investigación utiliza cartografía a escala 1:10,000 y datos topográficos junto a software especializado como AUTOCAD CIVIL y HEC-RAS 4.1 para evaluar la hidráulica del caño. Esto incluye la definición de secciones transversales y la elaboración de perfiles de flujo, analizando caudales máximos para diversos períodos de retorno, tales como 2.33, 5, 10, 25, 50 y 100 años. Dentro de la sección de Modelación Hidráulica, se determinan consideraciones de diseño que abarcan aspectos hidrológicos y geométricos, junto a la estimación del coeficiente de rugosidad de Manning. También se examina la conformación del cauce del Caño Pescado y las condiciones de frontera para el modelo hidráulico.</t>
+  </si>
+  <si>
+    <t>Este informe presenta los resultados de la modelación hidráulica del Caño Pescado, específicamente en el cruce de alcantarillado proyectado en el municipio de Nechí, Antioquia. El objetivo principal fue evaluar el comportamiento hidráulico de la corriente intervenida y garantizar que las obras proyectadas no afecten la dinámica natural del cauce.
+Los resultados clave obtenidos incluyen la identificación de secciones a lo largo del caño que no cuentan con la capacidad hidráulica necesaria para transportar el caudal correspondiente a un periodo de retorno de 100 años. Esto sugiere que se requieren intervenciones para mejorar la infraestructura existente. Además, el flujo en el tramo estudiado se clasifica como subcrítico, indicando la presencia de características de baja velocidad en comparación con el flujo crítico, lo que puede contribuir a la sedimentación y obstrucción en ciertas secciones.
+El análisis también documenta la existencia de problemas de inundación en el municipio durante crecientes máximas, atribuibles a la inadecuada capacidad de los caños, quebradas y ríos locales, destacando al Caño Pescado como una fuente principal de estos problemas. Se llevaron a cabo modelaciones hidrológicas utilizando herramientas computacionales como HEC-RAS y AUTOCAD CIVIL para elaborar perfiles de flujo y secciones transversales del cauce, lo cual permitirá un análisis más detallado y efectivo en futuras evaluaciones.
+En cuanto a las conclusiones, se establece que es fundamental realizar mejoras en el diseño y la capacidad hidráulica del segmento del Caño Pescado estudiado para mitigar el riesgo de inundaciones en Nechí. Las secciones que no cumplen con la capacidad adecuada para el caudal de 100 años requieren atención prioritaria. Por ello, se recomienda la implementación de un plan de intervención que contemple la optimización de las secciones críticas y el monitoreo continuo del comportamiento hidráulico del cauce.
+Como recomendaciones adicionales, se sugiere llevar a cabo un diseño de intervención para mejorar la capacidad hidráulica en las secciones identificadas, implementar un sistema de monitoreo para evaluar en tiempo real las condiciones del Caño Pescado y prever posibles inundaciones, así como considerar la realización de estudios adicionales para evaluar el impacto de las intervenciones a largo plazo.</t>
+  </si>
+  <si>
+    <t>Variable: Sedimentos</t>
+  </si>
+  <si>
+    <t>Caño Pescado, Modelación Hidráulica, Nechí, Alcantarillado, Capacidad Hidráulica, Crecientes Máximas, Inundaciones, Flujo Subcrítico, Estudio Hidrológico, HEC-RAS, AUTOCAD CIVIL, Infraestructura Hídrica, Plan de Intervención, Sedimentación, Monitoreo Hidráulico.</t>
+  </si>
+  <si>
+    <t>Memorias_de_Diagnostico_Nechi_Final</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.2. Diagnostico\Memorias_de_Diagnostico_Nechi_Final.pdf</t>
+  </si>
+  <si>
+    <t>ICSA soluciones S.A.S.</t>
+  </si>
+  <si>
+    <t>El documento presenta el diagnóstico del sistema de alcantarillado del casco urbano del municipio de Nechí. Analizando tramo a tramo toda la red. Incluyendo las dimensiones y alturas topográficas de cada tramo, además de concluir el caudal de diseño para verificar criterios de velocidad y fuerza tractiva.</t>
+  </si>
+  <si>
+    <t>Se presenta el análisis de 176 tramos de tuberías de alcantarillado (PVC y concreto) con longitudes promedio de 50 metros (mínima 3 m y máxima de 100 m) y con diámetros de 8 hasta 20 pulgadas. El caudal de diseño contempla el caudal infiltración, caudal conexión errada, caudal agua institucional, caudal agua residual y un factor mayoración. Posteriormente se calcula la velocidad real de la tubería así como la fuerza tractiva para hacer el chequeo hidráulico, en donde la velocidad debe estar entre 0.45 y 5 m/s y la fuerza tractiva entre 0.12 y 0.45 Kg/m2. En donde para gran parte de los tramos, la velocidad no cumple por ser menor a 0.45 m/s</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.2. Diagnostico</t>
+  </si>
+  <si>
+    <t>Variable: Caudal residual</t>
+  </si>
+  <si>
+    <t>Sistema de alcantarillado, diagnóstico, caudal infiltración, caudal conexión errada, caudal agua institucional, caudal agua residual, chequeo hidráulico, velocidad, fuerza tractiva, Nechí</t>
+  </si>
+  <si>
+    <t>Memorias Diseño Nechi final</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.3. Diseño\Memorias Diseño Nechi final.pdf</t>
+  </si>
+  <si>
+    <t>El documento presenta el diseño del sistema de alcantarillado del casco urbano del municipio de Nechí. Analizando tramo a tramo toda la red. Incluyendo las dimensiones y alturas topográficas de cada tramo, además de concluir el caudal de diseño para verificar criterios de velocidad y fuerza tractiva.</t>
+  </si>
+  <si>
+    <t>Se presenta el análisis de 412 tramos de tuberías de alcantarillado (PVC y concreto) con longitudes promedio de 50 metros (mínima 3 m y máxima de 100 m) y con diámetros de 8 hasta 20 pulgadas. El caudal de diseño contempla el caudal infiltración, caudal conexión errada, caudal agua institucional, caudal agua residual y un factor mayoración. Posteriormente se calcula la velocidad real de la tubería así como la fuerza tractiva para hacer el chequeo hidráulico, en donde la velocidad debe estar entre 0.45 y 5 m/s y la fuerza tractiva entre 0.12 y 0.45 Kg/m2. En donde todos os tramos cumplen con ambos requisitos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.3. Diseño</t>
+  </si>
+  <si>
+    <t>Sistema de alcantarillado, diseño, caudal infiltración, caudal conexión errada, caudal agua institucional, caudal agua residual, chequeo hidráulico, velocidad, fuerza tractiva, Nechí</t>
+  </si>
+  <si>
+    <t>MEMORIAS ESTRUCTURAS_ NECHI_EBAR</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.6. Estructural\MEMORIAS ESTRUCTURAS_ NECHI_EBAR.doc</t>
+  </si>
+  <si>
+    <t>Aas Sa</t>
+  </si>
+  <si>
+    <t>El documento titulado "Elaboración de los estudios y diseños de los Planes Maestros de Acueducto y Alcantarillado de las zonas urbanas de los Municipios del Departamento de Antioquia - 2013-SS-37-0026, TOMO I ACUEDUCTO, PMAA del Municipio de Nechí – Antioquia", presenta un estudio técnico detallado sobre la infraestructura de acueducto y alcantarillado del municipio de Nechí, ubicado en el departamento de Antioquia. El objetivo principal de este documento es proporcionar un diseño estructural integral que garantice la sostenibilidad y funcionalidad de los sistemas de acueducto y alcantarillado en Nechí, en cumplimiento con las normativas colombianas vigentes sobre construcción sismo resistente, específicamente la norma NSR-10. Esto incluye una evaluación exhaustiva de las condiciones geotécnicas y urbanas del área.</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>El documento presenta los resultados de los estudios y diseños de los Planes Maestros de Acueducto y Alcantarillado para el municipio de Nechí, Antioquia, elaborado en 2013. Se enfoca en el diseño estructural, considerando múltiples factores que impactan la integridad y funcionalidad del sistema hídrico y sanitario de la zona. Se realizó un completo análisis estructural utilizando cálculos mediante hojas de cálculo de Excel, que determinaron los esfuerzos y momentos internos en los elementos de la estructura, según las normativas del Reglamento Colombiano de Construcción Sismo Resistente NSR-10 . Se especificaron dimensiones preliminares para un tanque diseñado para una altura de muro de 3.75 metros, considerando el empuje hidrostático y fuerzas sísmicas aplicadas. Las combinaciones de carga se evaluaron conforme a las normativas sismo-resistentes, garantizando que las estructuras resistirían las condiciones más desfavorables. Se establecieron especificaciones para los materiales a usar, tales como hormigón y acero, así como la cuantía de refuerzo necesaria para evitar fisuraciones y cumplir con estándares de seguridad. El estudio concluye que el diseño de los sistemas de acueducto y alcantarillado es robusto y cumple con los requisitos indispensables para asegurar su funcionalidad y resistencia ante condiciones externas. Se enfatiza la importancia de seguir estrictamente las normativas NSR-10 en todos los aspectos del diseño y construcción.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.6. Estructural</t>
+  </si>
+  <si>
+    <t>Presenta variables de tipo estructural</t>
+  </si>
+  <si>
+    <t>Alcantarillado, diseño estructural, cargas estructurales, fuerzas sísmicas, Nechí, Antioquia</t>
+  </si>
+  <si>
+    <t>Informe_de_Amarre_geodésico</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.5. topografia\Informe_de_Amarre_geodésico.docx</t>
+  </si>
+  <si>
+    <t>Global Development Ingenieros consultores</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.5. topografia\CARTERA DE CAMPO MUNICIPIO DE MEDELLIN.fbk
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.5. topografia\LISTADO DE COORDENADAS MUNICIPIO DE NECHI.txt
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.5. topografia\TOPOGRAFIA MUNICIPIO DE NECHI ANTIOQUIA.dwg</t>
+  </si>
+  <si>
+    <t>El documento corresponde a un informe ejecutivo de actividades realizado en el marco de la “consultoría para Elaboración de los Estudios y Diseño de los Planes Maestros de Acueducto y Alcantarillado en las Zonas Urbanas de los Municipios del Departamento de Antioquia”. Específicamente el documento detalla las actividades realizadas en el Establecimiento de la red Básica y Monumentación de Vértices Geodésicos en el Municipio de Nechí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe detalla las actividades realizadas en el establecimiento de la red básica de geodesia para los planes maestros de acueducto y alcantarillado en las zonas urbanas del departamento de Antioquia, específicamente en el municipio de Nechí. El objetivo principal del documento es presentar el proceso de elaboración de estudios y diseños que garantizan un soporte espacial y métrico a las mediciones topográficas necesarias para la implementación de dichas obras. Este informe, parte de un esfuerzo más amplio coordinado por Acueductos y Alcantarillados Sostenibles S.A. (AAS S.A.) y la Gobernación de Antioquia, se centra en metodologías de posicionamiento global satelital (GNSS) para la definición de vértices geodésicos. Las metodologías utilizadas incluyen el uso de tecnologías avanzadas de geodesia, donde se llevaron a cabo estudios de campo que involucraron la monumentación y nivelación de puntos geodésicos mediante la construcción de soportes permanentes de concreto, así como el uso de equipos de navegación satelital. El informe describe los procedimientos para la fijación de coordenadas utilizando el software Topcon Tools y KRONOS PROCESSOR, lo cual permitió realizar conversiones de coordenadas al sistema MAGNA y establecer un modelo geoidal a partir del EGM96 para obtener elevaciones precisas. Además, se destaca la importancia del posprocesamiento diferencial de los datos efímeros recolectados durante las observaciones, así como la validación de los resultados a través de comparaciones con estaciones de control del Instituto Geográfico Agustín Codazzi (IGAC). El documento concluye con la presentación de los resultados obtenidos, donde se evidencia que las diferencias promedio en las coordenadas de cierre entre estaciones de control superan los 5 cm, lo que respalda la calidad del ajuste de la red geodésica diseñada. </t>
+  </si>
+  <si>
+    <t>El informe ofrece un marco técnico para la planificación y ejecución de proyectos de infraestructura en la región, contribuyendo de manera significativa al desarrollo sostenible de las ciudades en Antioquia.</t>
+  </si>
+  <si>
+    <t>Red geodésica, Antioquia, Nechí, acueducto, alcantarillado, monumentación, nivelación, coordenadas, procesamiento diferencial, observaciones de campo, infraestructura, mediciones topográficas, soporte espacial, soportes permanentes, diseño de redes, planificación urbana, desarrollo sostenible, técnicas de medición, permisos de intervención, orden público, áreas urbanas.</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>Estudio de Suelos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos\Estudio de Suelos.docx</t>
+  </si>
+  <si>
+    <t>ANEXOS No. 1 REGISTRO S.P.T</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 1 REGISTRO S.P.T.pdf</t>
+  </si>
+  <si>
+    <t>ANEXOS No. 2 ENSAYO DE PENETRACIÓN ESTANDAR</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 2 ENSAYO DE PENETRACIÓN ESTANDAR.pdf</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXO   No. 7 RECOMENDACIONES ENTIBADOS.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 1 REGISTRO S.P.T.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 2 ENSAYO DE PENETRACIÓN ESTANDAR.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 3 REGISTRO DE PERFORACIÓN.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 4 REGISTRO DE LABORATORIO.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 5 MANUAL DE EXCAVACIONES.pdf
+s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0105/02_PRODUCTOS/23. ESTUDIOS Y DISEÑOS/23.8 Estudio de Suelos/ANEXOS\ANEXOS No. 6 ESTABILIZACION DE TALUDES.pdf</t>
+  </si>
+  <si>
+    <t>Consoiltec S.A.S</t>
+  </si>
+  <si>
+    <t>El documento titulado “Estudio de Suelos para la Construcción de Proyecto Planta de Tratamiento de Agua Residual. Municipio de Nechí (Ant)” presenta el análisis de las condiciones geotécnicas y del comportamiento del suelo base para la cimentación de la planta de tratamiento de agua residual en el municipio de Nechí, Antioquia.</t>
+  </si>
+  <si>
+    <t>El documento se enfoca en el análisis geotécnico necesario para la construcción de una planta de tratamiento de agua residual en el municipio de Nechí, Antioquia, Colombia. Su objetivo principal es determinar las condiciones geotécnicas y el comportamiento del suelo en el sitio propuesto para garantizar una cimentación adecuada de la estructura. La investigación abarca varios aspectos, incluyendo la geología y geomorfología del área, la evaluación sísmica, la exploración geotécnica mediante ensayos de penetración estándar (SPT), y análisis laboratoriales que permiten caracterizar las propiedades físicas y mecánicas de los suelos. La metodología utilizada se divide en tres etapas fundamentales: la recolección de información básica que incluye datos topográficos, geológicos y climáticos; un estudio de campo donde se examinan los tipos de suelos y se determina el perfil estratigráfico y el nivel freático; y finalmente, un análisis de oficina donde se realizan ensayos de laboratorio a las muestras de suelo recolectadas. Estos resultados se integran para ofrecer recomendaciones sobre el diseño y la construcción de las cimentaciones, asegurando que se satisfagan los requerimientos de resistencia y estabilidad según la normativa NSR-10. El estudio también aborda la consideración del comportamiento del suelo bajo acciones sísmicas, determinando parámetros de diseño que son cruciales para asegurar la seguridad estructural del proyecto. Se presenta un análisis detallado de la capacidad de soporte del suelo en función de la profundidad y características de los estratos geológicos, proporcionando una visión integral que permite la adecuada planificación y ejecución de la obra. Las conclusiones resaltan que el material clasificado como SM, presente a profundidades entre 2.45 y 7.45 metros, presenta las mejores condiciones geotécnicas, lo cual es fundamental para la fundamentación estructural de la planta de tratamiento.</t>
+  </si>
+  <si>
+    <t>Variable: SPT, tipos de suelo, posición del nivel freático</t>
+  </si>
+  <si>
+    <t>Nechí, Antioquia, planta de tratamiento de agua residual, estudio de suelos, geotecnia, capacidad de soporte, ensayo de penetración estándar, SPT, clasificación de suelos, nivel freático, condiciones sísmicas, cimentación, diseño estructural, estratigrafía, cohesión, fricción interna, características del suelo, evaluación geomorfológica, riesgos geotécnicos, control de asentamientos, inestabilidad del terreno, materiales de construcción, recomendaciones geotécnicas, parámetros de diseño, respuesta sísmica.</t>
+  </si>
+  <si>
+    <t>El documento contiene los resultados del registro en campo “S.P.T” de tres perforaciones realizadas durante el análisis geotécnico necesario para la construcción de una planta de tratamiento de agua residual en el municipio de Nechí, Antioquia.</t>
+  </si>
+  <si>
+    <t>El documento contiene los resultados del Ensayo de Penetración Estandar de tres perforaciones realizadas durante el análisis geotécnico necesario para la construcción de una planta de tratamiento de agua residual en el municipio de Nechí, Antioquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento contiene tres tablas de datos, las cuales presentan los resultados del análisis S.P.T realizado a tres perforaciones. Cada tabla contiene información sobre la profundidad de la muestra, número de golpes, resistencia, posición del nivel freático, y una descripción cualitativa de las características del suelo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable: profundidad de la muestra, número de golpes, resistencia, posición del nivel freático, y una descripción cualitativa de las características del suelo. </t>
+  </si>
+  <si>
+    <t>Nechí, Antioquia, Registo de Campo SPT, profundidad de la muestra, número de golpes, resistencia, posición del nivel freático, caracteristicas del suelo</t>
+  </si>
+  <si>
+    <t>El documento contiene tres tablas de datos, las cuales presentan los resultados del ensayo de penetración estándar realizado a tres perforaciones. Cada tabla contiene información sobre la profundidad de la muestra, NSPT (golpes/pie) y densidad relativa del suelo.</t>
+  </si>
+  <si>
+    <t>Variable: profundidad de la muestra, NSPT (golpes/pie) y densidad relativa del suelo.</t>
+  </si>
+  <si>
+    <t>Nechí, Antioquia, ensayo de perforación, profundidad de la muestra, NSPT, densidad relativa del suelo</t>
   </si>
 </sst>
 </file>
@@ -186,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +457,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,28 +1294,28 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="55.26953125" customWidth="1"/>
+    <col min="4" max="4" width="59.54296875" customWidth="1"/>
+    <col min="6" max="8" width="9.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.1796875" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1107,187 +1371,511 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9999</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9999</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9999</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2014</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9999</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1307,7 +1895,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1327,7 +1915,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1347,7 +1935,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1367,7 +1955,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1387,10 +1975,10 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:18" x14ac:dyDescent="0.35">
       <c r="R17" s="1"/>
     </row>
   </sheetData>
@@ -1403,15 +1991,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1555,15 +2134,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1579,4 +2159,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>